--- a/BSDT-statistical-analysis/media/ID_36_uploads/temporary_uploads/UGC_University_Monitoring_Responses.xlsx
+++ b/BSDT-statistical-analysis/media/ID_36_uploads/temporary_uploads/UGC_University_Monitoring_Responses.xlsx
@@ -763,8 +763,16 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -868,8 +876,16 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -1058,8 +1074,16 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -1143,8 +1167,16 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -1264,7 +1296,11 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>Very poor</t>
@@ -1349,8 +1385,16 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -1539,8 +1583,16 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1644,8 +1696,16 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1854,8 +1914,16 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -2064,8 +2132,16 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -2169,8 +2245,16 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -2379,8 +2463,16 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -2484,8 +2576,16 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -2884,8 +2984,16 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -2969,8 +3077,16 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
@@ -3054,8 +3170,16 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -3244,8 +3368,16 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -3329,8 +3461,16 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -3414,8 +3554,16 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -3515,7 +3663,11 @@
           <t>Poor</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>Good</t>
@@ -3705,8 +3857,16 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -3915,8 +4075,16 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -4020,8 +4188,16 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -4141,7 +4317,11 @@
           <t>Very poor</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>Good</t>
@@ -4226,8 +4406,16 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -4327,7 +4515,11 @@
           <t>Excellent</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
           <t>Excellent</t>
@@ -4412,8 +4604,16 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -4517,8 +4717,16 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -4917,8 +5125,16 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -5107,8 +5323,16 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
@@ -5192,8 +5416,16 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -5297,8 +5529,16 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
@@ -5802,8 +6042,16 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
@@ -5887,8 +6135,16 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -5992,8 +6248,16 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
@@ -6093,7 +6357,11 @@
           <t>Poor</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
           <t>Good</t>
@@ -6178,8 +6446,16 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
@@ -6263,8 +6539,16 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
@@ -6453,8 +6737,16 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
@@ -6659,7 +6951,11 @@
           <t>Very poor</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
           <t>Average</t>
@@ -6744,8 +7040,16 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
@@ -6829,8 +7133,16 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
@@ -7039,8 +7351,16 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
@@ -7249,8 +7569,16 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
@@ -7649,8 +7977,16 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
@@ -7839,8 +8175,16 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
@@ -7944,8 +8288,16 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
@@ -8134,8 +8486,16 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
@@ -8324,8 +8684,16 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
@@ -8409,8 +8777,16 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
@@ -8494,8 +8870,16 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
@@ -8599,8 +8983,16 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
@@ -8789,8 +9181,16 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
@@ -8979,8 +9379,16 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
@@ -9084,8 +9492,16 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
@@ -9924,8 +10340,16 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
@@ -10130,7 +10554,11 @@
           <t>Average</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Adequate</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr">
         <is>
           <t>Excellent</t>
